--- a/Code/Results/Cases/Case_4_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.330860699436812</v>
+        <v>0.794650418452477</v>
       </c>
       <c r="C2">
-        <v>0.5410361150350695</v>
+        <v>0.1649669270842082</v>
       </c>
       <c r="D2">
-        <v>0.2049797349574334</v>
+        <v>0.07906294041258377</v>
       </c>
       <c r="E2">
-        <v>0.207637495403155</v>
+        <v>0.1092766512264234</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007762466856126497</v>
+        <v>0.002408672199012024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9420512503670366</v>
+        <v>0.3398181348944291</v>
       </c>
       <c r="N2">
-        <v>0.5376461808743205</v>
+        <v>1.078372830862985</v>
       </c>
       <c r="O2">
-        <v>2.476961723192829</v>
+        <v>2.571205963064813</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.020581571054294</v>
+        <v>0.7050580247677942</v>
       </c>
       <c r="C3">
-        <v>0.4735331040130006</v>
+        <v>0.1443711910447973</v>
       </c>
       <c r="D3">
-        <v>0.1773802992002089</v>
+        <v>0.07163472829491013</v>
       </c>
       <c r="E3">
-        <v>0.1807803344395751</v>
+        <v>0.103144775336709</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007816415282213505</v>
+        <v>0.002412187661532699</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8142191021743557</v>
+        <v>0.3047588530634329</v>
       </c>
       <c r="N3">
-        <v>0.5779571693285206</v>
+        <v>1.094194201261868</v>
       </c>
       <c r="O3">
-        <v>2.247053594024123</v>
+        <v>2.536162412778424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.831111092636291</v>
+        <v>0.6501349642453818</v>
       </c>
       <c r="C4">
-        <v>0.432210948316623</v>
+        <v>0.131673953113534</v>
       </c>
       <c r="D4">
-        <v>0.1606438408588104</v>
+        <v>0.06711059129069952</v>
       </c>
       <c r="E4">
-        <v>0.1647381733583302</v>
+        <v>0.09947083137834767</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007850543779146662</v>
+        <v>0.002414460969516221</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7365555251168914</v>
+        <v>0.2833408364309022</v>
       </c>
       <c r="N4">
-        <v>0.6038998922823851</v>
+        <v>1.104412393761754</v>
       </c>
       <c r="O4">
-        <v>2.111875284871331</v>
+        <v>2.516650049453688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.754112115205544</v>
+        <v>0.6277756577867706</v>
       </c>
       <c r="C5">
-        <v>0.4153930220463167</v>
+        <v>0.1264868883372401</v>
       </c>
       <c r="D5">
-        <v>0.1538695787631355</v>
+        <v>0.06527616491021604</v>
       </c>
       <c r="E5">
-        <v>0.1583009496219745</v>
+        <v>0.09799630466626752</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007864711081928726</v>
+        <v>0.002415416320107952</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.705083850230821</v>
+        <v>0.2746398735687592</v>
       </c>
       <c r="N5">
-        <v>0.6147603039320515</v>
+        <v>1.108702923746931</v>
       </c>
       <c r="O5">
-        <v>2.058169015772563</v>
+        <v>2.509200789869368</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.7413378795749</v>
+        <v>0.6240642701172305</v>
       </c>
       <c r="C6">
-        <v>0.4126014126821929</v>
+        <v>0.125624807282037</v>
       </c>
       <c r="D6">
-        <v>0.152747305443242</v>
+        <v>0.06497211345470078</v>
       </c>
       <c r="E6">
-        <v>0.1572377462784189</v>
+        <v>0.09775282014663844</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007867079437620302</v>
+        <v>0.002415576707160749</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6998678241727632</v>
+        <v>0.2731967124328136</v>
       </c>
       <c r="N6">
-        <v>0.6165807834410053</v>
+        <v>1.109423000906313</v>
       </c>
       <c r="O6">
-        <v>2.049330968611798</v>
+        <v>2.507994122450157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.830071863991492</v>
+        <v>0.6498333280427744</v>
       </c>
       <c r="C7">
-        <v>0.4319840630875547</v>
+        <v>0.1316040504109139</v>
       </c>
       <c r="D7">
-        <v>0.1605523032346667</v>
+        <v>0.06708581441951367</v>
       </c>
       <c r="E7">
-        <v>0.1646509694987586</v>
+        <v>0.09945085408926957</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000785073378381549</v>
+        <v>0.002414473736159958</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7361304101733239</v>
+        <v>0.2832233829752653</v>
       </c>
       <c r="N7">
-        <v>0.6040452054312357</v>
+        <v>1.104469745225749</v>
       </c>
       <c r="O7">
-        <v>2.111145555528225</v>
+        <v>2.516547555279175</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.223628725563572</v>
+        <v>0.7637411090241244</v>
       </c>
       <c r="C8">
-        <v>0.5177287254907412</v>
+        <v>0.1578762217281167</v>
       </c>
       <c r="D8">
-        <v>0.1954157192298567</v>
+        <v>0.07649401258021271</v>
       </c>
       <c r="E8">
-        <v>0.1982762199708077</v>
+        <v>0.1071433232868699</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007780864386592814</v>
+        <v>0.002409860559235481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8977840592614115</v>
+        <v>0.3277070162919884</v>
       </c>
       <c r="N8">
-        <v>0.5512911875242938</v>
+        <v>1.083723383073734</v>
       </c>
       <c r="O8">
-        <v>2.396368911933507</v>
+        <v>2.558705766227575</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.006148782282139</v>
+        <v>0.9877985043161175</v>
       </c>
       <c r="C9">
-        <v>0.6873749357235113</v>
+        <v>0.208987213495675</v>
       </c>
       <c r="D9">
-        <v>0.2657770431258939</v>
+        <v>0.09523932166669624</v>
       </c>
       <c r="E9">
-        <v>0.2683937255638185</v>
+        <v>0.1229633159171897</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007651465789073486</v>
+        <v>0.002401720814845593</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.222859247682109</v>
+        <v>0.4158156889612314</v>
       </c>
       <c r="N9">
-        <v>0.4578319828677078</v>
+        <v>1.047043630012491</v>
       </c>
       <c r="O9">
-        <v>3.009306080122741</v>
+        <v>2.657375315305217</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.591439943409682</v>
+        <v>1.152840078624138</v>
       </c>
       <c r="C10">
-        <v>0.8137167376681589</v>
+        <v>0.2462916621214504</v>
       </c>
       <c r="D10">
-        <v>0.319188940215426</v>
+        <v>0.1091984699683763</v>
       </c>
       <c r="E10">
-        <v>0.3234099165516966</v>
+        <v>0.1350531121097021</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00075605092899881</v>
+        <v>0.002396287393241562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.468943593831739</v>
+        <v>0.481111306763168</v>
       </c>
       <c r="N10">
-        <v>0.3960644823088231</v>
+        <v>1.022543753807662</v>
       </c>
       <c r="O10">
-        <v>3.501601065274883</v>
+        <v>2.739760306137043</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.860901924626774</v>
+        <v>1.228017552440633</v>
       </c>
       <c r="C11">
-        <v>0.8717594339342156</v>
+        <v>0.263209583560581</v>
       </c>
       <c r="D11">
-        <v>0.3439836475156852</v>
+        <v>0.1155909531735375</v>
       </c>
       <c r="E11">
-        <v>0.3494373841771292</v>
+        <v>0.140658571091997</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007519894470466844</v>
+        <v>0.002393933077300165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.5830486699207</v>
+        <v>0.510944495146191</v>
       </c>
       <c r="N11">
-        <v>0.3696614620200247</v>
+        <v>1.011931606832801</v>
       </c>
       <c r="O11">
-        <v>3.736967685723471</v>
+        <v>2.779418439190124</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.963488427875461</v>
+        <v>1.256499455620258</v>
       </c>
       <c r="C12">
-        <v>0.893838707624667</v>
+        <v>0.2696084537019772</v>
       </c>
       <c r="D12">
-        <v>0.3534555794800411</v>
+        <v>0.1180178069738815</v>
       </c>
       <c r="E12">
-        <v>0.3594595644945429</v>
+        <v>0.1427967296401178</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007504612447891207</v>
+        <v>0.002393058342100301</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.626621699990423</v>
+        <v>0.5222606037722102</v>
       </c>
       <c r="N12">
-        <v>0.3599257653105088</v>
+        <v>1.007989890091572</v>
       </c>
       <c r="O12">
-        <v>3.827949690407479</v>
+        <v>2.79475182300348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.941368802605041</v>
+        <v>1.25036476026969</v>
       </c>
       <c r="C13">
-        <v>0.8890787980191419</v>
+        <v>0.2682306810977195</v>
       </c>
       <c r="D13">
-        <v>0.3514117608953171</v>
+        <v>0.117494865658017</v>
       </c>
       <c r="E13">
-        <v>0.3572933378315568</v>
+        <v>0.1423355453124842</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007507899546463086</v>
+        <v>0.002393245986296093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.617220374016398</v>
+        <v>0.5198226314678465</v>
       </c>
       <c r="N13">
-        <v>0.3620105260819546</v>
+        <v>1.008835386606327</v>
       </c>
       <c r="O13">
-        <v>3.808269040669927</v>
+        <v>2.791435429388798</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.86933029289014</v>
+        <v>1.230360501194298</v>
       </c>
       <c r="C14">
-        <v>0.8735738001732898</v>
+        <v>0.2637361748916192</v>
       </c>
       <c r="D14">
-        <v>0.3447611833808111</v>
+        <v>0.1157904880988525</v>
       </c>
       <c r="E14">
-        <v>0.3502584487186766</v>
+        <v>0.1408341665358108</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007518635317715847</v>
+        <v>0.002393860776299139</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.586625830599033</v>
+        <v>0.5118750974266959</v>
       </c>
       <c r="N14">
-        <v>0.3688551243755587</v>
+        <v>1.011605777422689</v>
       </c>
       <c r="O14">
-        <v>3.74441438898549</v>
+        <v>2.780673586464502</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.825278557830984</v>
+        <v>1.218109102314827</v>
       </c>
       <c r="C15">
-        <v>0.8640900979092692</v>
+        <v>0.2609821702436363</v>
       </c>
       <c r="D15">
-        <v>0.3406986350029655</v>
+        <v>0.1147473115936748</v>
       </c>
       <c r="E15">
-        <v>0.3459717163881706</v>
+        <v>0.1399165548414771</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007525223677278894</v>
+        <v>0.002394239537170616</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.567934859122275</v>
+        <v>0.5070094757834482</v>
       </c>
       <c r="N15">
-        <v>0.3730824189858239</v>
+        <v>1.013312739923022</v>
       </c>
       <c r="O15">
-        <v>3.705549632611849</v>
+        <v>2.774122824578285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.573901680496874</v>
+        <v>1.147929012600457</v>
       </c>
       <c r="C16">
-        <v>0.8099364531653919</v>
+        <v>0.2451849805703148</v>
       </c>
       <c r="D16">
-        <v>0.3175794889302921</v>
+        <v>0.1087815646286714</v>
       </c>
       <c r="E16">
-        <v>0.3217309407104452</v>
+        <v>0.1346889345608204</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007563177924482859</v>
+        <v>0.002396443607893556</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.461534455835547</v>
+        <v>0.4791642726683563</v>
       </c>
       <c r="N16">
-        <v>0.3978256595573235</v>
+        <v>1.023248027040239</v>
       </c>
       <c r="O16">
-        <v>3.486466709239039</v>
+        <v>2.737212617444072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.420570494721687</v>
+        <v>1.104900898416645</v>
       </c>
       <c r="C17">
-        <v>0.7768728911501057</v>
+        <v>0.2354805156462305</v>
       </c>
       <c r="D17">
-        <v>0.3035316656343809</v>
+        <v>0.105132675336975</v>
       </c>
       <c r="E17">
-        <v>0.3071313350719365</v>
+        <v>0.1315092469543799</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000758664880127396</v>
+        <v>0.002397825735705983</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.396850714594251</v>
+        <v>0.4621155859539954</v>
       </c>
       <c r="N17">
-        <v>0.413451845170778</v>
+        <v>1.029479673963781</v>
       </c>
       <c r="O17">
-        <v>3.355135312522975</v>
+        <v>2.715129454414637</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.332675004651549</v>
+        <v>1.080161631652913</v>
       </c>
       <c r="C18">
-        <v>0.7579079995148277</v>
+        <v>0.2298938695033996</v>
       </c>
       <c r="D18">
-        <v>0.2954978138307354</v>
+        <v>0.1030379175502389</v>
       </c>
       <c r="E18">
-        <v>0.2988267131275038</v>
+        <v>0.1296903112169829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007600221084038363</v>
+        <v>0.002398631752038974</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.359846152188879</v>
+        <v>0.4523218424132693</v>
       </c>
       <c r="N18">
-        <v>0.4225979604227206</v>
+        <v>1.033114103795361</v>
       </c>
       <c r="O18">
-        <v>3.280657939630885</v>
+        <v>2.702632942032238</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.302963566477104</v>
+        <v>1.071786963362683</v>
       </c>
       <c r="C19">
-        <v>0.7514952962580139</v>
+        <v>0.2280014893366911</v>
       </c>
       <c r="D19">
-        <v>0.2927852806896851</v>
+        <v>0.1023293513930241</v>
       </c>
       <c r="E19">
-        <v>0.2960301889965038</v>
+        <v>0.129076148740161</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007604829206631595</v>
+        <v>0.002398906556375837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.34734982629962</v>
+        <v>0.4490079386599888</v>
       </c>
       <c r="N19">
-        <v>0.425721331196705</v>
+        <v>1.034353265839822</v>
       </c>
       <c r="O19">
-        <v>3.255617289417415</v>
+        <v>2.698437006214249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.436861576734941</v>
+        <v>1.109480348476779</v>
       </c>
       <c r="C20">
-        <v>0.7803870173005691</v>
+        <v>0.2365140797604681</v>
       </c>
       <c r="D20">
-        <v>0.305022233100118</v>
+        <v>0.105520692758418</v>
       </c>
       <c r="E20">
-        <v>0.3086757416129089</v>
+        <v>0.1318466996754353</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007584142868159546</v>
+        <v>0.002397677462679362</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.403715360643133</v>
+        <v>0.4639291822577718</v>
       </c>
       <c r="N20">
-        <v>0.4117718925337712</v>
+        <v>1.028811112360403</v>
       </c>
       <c r="O20">
-        <v>3.369004490018654</v>
+        <v>2.717458998410109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.890474177134763</v>
+        <v>1.236235865281117</v>
       </c>
       <c r="C21">
-        <v>0.878125133979097</v>
+        <v>0.2650565267560978</v>
       </c>
       <c r="D21">
-        <v>0.3467122797975435</v>
+        <v>0.1162909374455126</v>
       </c>
       <c r="E21">
-        <v>0.3523200671424718</v>
+        <v>0.1412747351137114</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007515479401602394</v>
+        <v>0.002393679742565769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.595601860360219</v>
+        <v>0.5142089651200195</v>
       </c>
       <c r="N21">
-        <v>0.3668374156063496</v>
+        <v>1.010789958291811</v>
       </c>
       <c r="O21">
-        <v>3.763117943975033</v>
+        <v>2.783826015427735</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.190171219128104</v>
+        <v>1.319158307144505</v>
       </c>
       <c r="C22">
-        <v>0.9425938877087106</v>
+        <v>0.2836664444140808</v>
       </c>
       <c r="D22">
-        <v>0.3744472526567222</v>
+        <v>0.1233658443538985</v>
       </c>
       <c r="E22">
-        <v>0.381824752455195</v>
+        <v>0.1475269399043242</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007471168448803723</v>
+        <v>0.002391164846005157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.723160871640118</v>
+        <v>0.5471801535919809</v>
       </c>
       <c r="N22">
-        <v>0.3390105741043143</v>
+        <v>0.9994602788932507</v>
       </c>
       <c r="O22">
-        <v>4.031613171806498</v>
+        <v>2.829041883420473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.029890718054332</v>
+        <v>1.274893829047926</v>
       </c>
       <c r="C23">
-        <v>0.9081251688366478</v>
+        <v>0.2737380577900979</v>
       </c>
       <c r="D23">
-        <v>0.3595959268408535</v>
+        <v>0.1195865251153378</v>
       </c>
       <c r="E23">
-        <v>0.3659797948181023</v>
+        <v>0.1441816503323281</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007494770508656894</v>
+        <v>0.00239249816886279</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.65486437876217</v>
+        <v>0.5295726204190885</v>
       </c>
       <c r="N23">
-        <v>0.3537146423751292</v>
+        <v>1.005466054637171</v>
       </c>
       <c r="O23">
-        <v>3.887237453919113</v>
+        <v>2.804740153528314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.429495585501115</v>
+        <v>1.107409984778599</v>
       </c>
       <c r="C24">
-        <v>0.778798145799982</v>
+        <v>0.2360468285350521</v>
       </c>
       <c r="D24">
-        <v>0.3043482162250655</v>
+        <v>0.1053452606290648</v>
       </c>
       <c r="E24">
-        <v>0.307977240210775</v>
+        <v>0.1316941089510877</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007585275555282395</v>
+        <v>0.002397744461320226</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.400611288174616</v>
+        <v>0.4631092311817753</v>
       </c>
       <c r="N24">
-        <v>0.41253089463763</v>
+        <v>1.029113207797437</v>
       </c>
       <c r="O24">
-        <v>3.362731052372851</v>
+        <v>2.716405190614864</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.792931102625516</v>
+        <v>0.9271108228649041</v>
       </c>
       <c r="C25">
-        <v>0.6412435642625667</v>
+        <v>0.1952038511880403</v>
       </c>
       <c r="D25">
-        <v>0.2464796786547083</v>
+        <v>0.09013586295044718</v>
       </c>
       <c r="E25">
-        <v>0.248884847607961</v>
+        <v>0.1186029645540359</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007685708449419735</v>
+        <v>0.002403826375889016</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.133825884091117</v>
+        <v>0.3918832632879088</v>
       </c>
       <c r="N25">
-        <v>0.4819666540543484</v>
+        <v>1.056537043870337</v>
       </c>
       <c r="O25">
-        <v>2.836841069424537</v>
+        <v>2.628955518964943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.794650418452477</v>
+        <v>2.330860699436812</v>
       </c>
       <c r="C2">
-        <v>0.1649669270842082</v>
+        <v>0.5410361150347285</v>
       </c>
       <c r="D2">
-        <v>0.07906294041258377</v>
+        <v>0.2049797349573623</v>
       </c>
       <c r="E2">
-        <v>0.1092766512264234</v>
+        <v>0.2076374954031905</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002408672199012024</v>
+        <v>0.0007762466855852086</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3398181348944291</v>
+        <v>0.9420512503670437</v>
       </c>
       <c r="N2">
-        <v>1.078372830862985</v>
+        <v>0.5376461808743311</v>
       </c>
       <c r="O2">
-        <v>2.571205963064813</v>
+        <v>2.476961723192773</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7050580247677942</v>
+        <v>2.020581571054322</v>
       </c>
       <c r="C3">
-        <v>0.1443711910447973</v>
+        <v>0.4735331040131996</v>
       </c>
       <c r="D3">
-        <v>0.07163472829491013</v>
+        <v>0.1773802992002658</v>
       </c>
       <c r="E3">
-        <v>0.103144775336709</v>
+        <v>0.1807803344395538</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002412187661532699</v>
+        <v>0.0007816415282213821</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3047588530634329</v>
+        <v>0.8142191021743486</v>
       </c>
       <c r="N3">
-        <v>1.094194201261868</v>
+        <v>0.5779571693285668</v>
       </c>
       <c r="O3">
-        <v>2.536162412778424</v>
+        <v>2.247053594024209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6501349642453818</v>
+        <v>1.831111092636178</v>
       </c>
       <c r="C4">
-        <v>0.131673953113534</v>
+        <v>0.4322109483165093</v>
       </c>
       <c r="D4">
-        <v>0.06711059129069952</v>
+        <v>0.1606438408587962</v>
       </c>
       <c r="E4">
-        <v>0.09947083137834767</v>
+        <v>0.1647381733583302</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002414460969516221</v>
+        <v>0.0007850543779144348</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2833408364309022</v>
+        <v>0.7365555251168914</v>
       </c>
       <c r="N4">
-        <v>1.104412393761754</v>
+        <v>0.6038998922823868</v>
       </c>
       <c r="O4">
-        <v>2.516650049453688</v>
+        <v>2.111875284871218</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6277756577867706</v>
+        <v>1.754112115205402</v>
       </c>
       <c r="C5">
-        <v>0.1264868883372401</v>
+        <v>0.4153930220458619</v>
       </c>
       <c r="D5">
-        <v>0.06527616491021604</v>
+        <v>0.1538695787633912</v>
       </c>
       <c r="E5">
-        <v>0.09799630466626752</v>
+        <v>0.1583009496219887</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002415416320107952</v>
+        <v>0.0007864711082230918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2746398735687592</v>
+        <v>0.7050838502308352</v>
       </c>
       <c r="N5">
-        <v>1.108702923746931</v>
+        <v>0.6147603039320568</v>
       </c>
       <c r="O5">
-        <v>2.509200789869368</v>
+        <v>2.058169015772648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6240642701172305</v>
+        <v>1.74133787957507</v>
       </c>
       <c r="C6">
-        <v>0.125624807282037</v>
+        <v>0.4126014126825339</v>
       </c>
       <c r="D6">
-        <v>0.06497211345470078</v>
+        <v>0.1527473054432988</v>
       </c>
       <c r="E6">
-        <v>0.09775282014663844</v>
+        <v>0.1572377462784331</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002415576707160749</v>
+        <v>0.0007867079438188748</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2731967124328136</v>
+        <v>0.6998678241727632</v>
       </c>
       <c r="N6">
-        <v>1.109423000906313</v>
+        <v>0.6165807834410124</v>
       </c>
       <c r="O6">
-        <v>2.507994122450157</v>
+        <v>2.049330968611827</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6498333280427744</v>
+        <v>1.830071863991492</v>
       </c>
       <c r="C7">
-        <v>0.1316040504109139</v>
+        <v>0.4319840630875547</v>
       </c>
       <c r="D7">
-        <v>0.06708581441951367</v>
+        <v>0.1605523032344962</v>
       </c>
       <c r="E7">
-        <v>0.09945085408926957</v>
+        <v>0.1646509694987586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002414473736159958</v>
+        <v>0.0007850733783826331</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2832233829752653</v>
+        <v>0.7361304101733168</v>
       </c>
       <c r="N7">
-        <v>1.104469745225749</v>
+        <v>0.6040452054312464</v>
       </c>
       <c r="O7">
-        <v>2.516547555279175</v>
+        <v>2.111145555528196</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7637411090241244</v>
+        <v>2.223628725563458</v>
       </c>
       <c r="C8">
-        <v>0.1578762217281167</v>
+        <v>0.5177287254908265</v>
       </c>
       <c r="D8">
-        <v>0.07649401258021271</v>
+        <v>0.1954157192299704</v>
       </c>
       <c r="E8">
-        <v>0.1071433232868699</v>
+        <v>0.1982762199708432</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002409860559235481</v>
+        <v>0.0007780864386897654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3277070162919884</v>
+        <v>0.8977840592614044</v>
       </c>
       <c r="N8">
-        <v>1.083723383073734</v>
+        <v>0.5512911875242974</v>
       </c>
       <c r="O8">
-        <v>2.558705766227575</v>
+        <v>2.39636891193345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9877985043161175</v>
+        <v>3.006148782282025</v>
       </c>
       <c r="C9">
-        <v>0.208987213495675</v>
+        <v>0.6873749357231986</v>
       </c>
       <c r="D9">
-        <v>0.09523932166669624</v>
+        <v>0.265777043125965</v>
       </c>
       <c r="E9">
-        <v>0.1229633159171897</v>
+        <v>0.2683937255638469</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002401720814845593</v>
+        <v>0.00076514657890818</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4158156889612314</v>
+        <v>1.222859247682095</v>
       </c>
       <c r="N9">
-        <v>1.047043630012491</v>
+        <v>0.4578319828676563</v>
       </c>
       <c r="O9">
-        <v>2.657375315305217</v>
+        <v>3.009306080122741</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.152840078624138</v>
+        <v>3.591439943409682</v>
       </c>
       <c r="C10">
-        <v>0.2462916621214504</v>
+        <v>0.8137167376680168</v>
       </c>
       <c r="D10">
-        <v>0.1091984699683763</v>
+        <v>0.3191889402155539</v>
       </c>
       <c r="E10">
-        <v>0.1350531121097021</v>
+        <v>0.3234099165516966</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002396287393241562</v>
+        <v>0.0007560509290072429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.481111306763168</v>
+        <v>1.468943593831739</v>
       </c>
       <c r="N10">
-        <v>1.022543753807662</v>
+        <v>0.3960644823088142</v>
       </c>
       <c r="O10">
-        <v>2.739760306137043</v>
+        <v>3.501601065274826</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.228017552440633</v>
+        <v>3.860901924626717</v>
       </c>
       <c r="C11">
-        <v>0.263209583560581</v>
+        <v>0.8717594339341872</v>
       </c>
       <c r="D11">
-        <v>0.1155909531735375</v>
+        <v>0.3439836475156284</v>
       </c>
       <c r="E11">
-        <v>0.140658571091997</v>
+        <v>0.3494373841771363</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002393933077300165</v>
+        <v>0.0007519894471415649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.510944495146191</v>
+        <v>1.5830486699207</v>
       </c>
       <c r="N11">
-        <v>1.011931606832801</v>
+        <v>0.3696614620200265</v>
       </c>
       <c r="O11">
-        <v>2.779418439190124</v>
+        <v>3.736967685723471</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.256499455620258</v>
+        <v>3.963488427875461</v>
       </c>
       <c r="C12">
-        <v>0.2696084537019772</v>
+        <v>0.8938387076248375</v>
       </c>
       <c r="D12">
-        <v>0.1180178069738815</v>
+        <v>0.3534555794799275</v>
       </c>
       <c r="E12">
-        <v>0.1427967296401178</v>
+        <v>0.3594595644945286</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002393058342100301</v>
+        <v>0.0007504612447893213</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5222606037722102</v>
+        <v>1.626621699990409</v>
       </c>
       <c r="N12">
-        <v>1.007989890091572</v>
+        <v>0.3599257653105781</v>
       </c>
       <c r="O12">
-        <v>2.79475182300348</v>
+        <v>3.827949690407479</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.25036476026969</v>
+        <v>3.941368802605098</v>
       </c>
       <c r="C13">
-        <v>0.2682306810977195</v>
+        <v>0.8890787980192556</v>
       </c>
       <c r="D13">
-        <v>0.117494865658017</v>
+        <v>0.3514117608954024</v>
       </c>
       <c r="E13">
-        <v>0.1423355453124842</v>
+        <v>0.3572933378315568</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002393245986296093</v>
+        <v>0.0007507899546464691</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5198226314678465</v>
+        <v>1.617220374016412</v>
       </c>
       <c r="N13">
-        <v>1.008835386606327</v>
+        <v>0.362010526082015</v>
       </c>
       <c r="O13">
-        <v>2.791435429388798</v>
+        <v>3.808269040669927</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.230360501194298</v>
+        <v>3.869330292890254</v>
       </c>
       <c r="C14">
-        <v>0.2637361748916192</v>
+        <v>0.8735738001735456</v>
       </c>
       <c r="D14">
-        <v>0.1157904880988525</v>
+        <v>0.3447611833805837</v>
       </c>
       <c r="E14">
-        <v>0.1408341665358108</v>
+        <v>0.3502584487186695</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002393860776299139</v>
+        <v>0.0007518635317333848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5118750974266959</v>
+        <v>1.586625830599019</v>
       </c>
       <c r="N14">
-        <v>1.011605777422689</v>
+        <v>0.3688551243755605</v>
       </c>
       <c r="O14">
-        <v>2.780673586464502</v>
+        <v>3.744414388985547</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.218109102314827</v>
+        <v>3.825278557830984</v>
       </c>
       <c r="C15">
-        <v>0.2609821702436363</v>
+        <v>0.8640900979093544</v>
       </c>
       <c r="D15">
-        <v>0.1147473115936748</v>
+        <v>0.3406986350029655</v>
       </c>
       <c r="E15">
-        <v>0.1399165548414771</v>
+        <v>0.3459717163881919</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002394239537170616</v>
+        <v>0.0007525223676798921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5070094757834482</v>
+        <v>1.567934859122289</v>
       </c>
       <c r="N15">
-        <v>1.013312739923022</v>
+        <v>0.3730824189857582</v>
       </c>
       <c r="O15">
-        <v>2.774122824578285</v>
+        <v>3.705549632611849</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.147929012600457</v>
+        <v>3.573901680496988</v>
       </c>
       <c r="C16">
-        <v>0.2451849805703148</v>
+        <v>0.8099364531653634</v>
       </c>
       <c r="D16">
-        <v>0.1087815646286714</v>
+        <v>0.3175794889303774</v>
       </c>
       <c r="E16">
-        <v>0.1346889345608204</v>
+        <v>0.3217309407104523</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002396443607893556</v>
+        <v>0.0007563177924487323</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4791642726683563</v>
+        <v>1.461534455835562</v>
       </c>
       <c r="N16">
-        <v>1.023248027040239</v>
+        <v>0.3978256595573146</v>
       </c>
       <c r="O16">
-        <v>2.737212617444072</v>
+        <v>3.486466709239039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.104900898416645</v>
+        <v>3.420570494721574</v>
       </c>
       <c r="C17">
-        <v>0.2354805156462305</v>
+        <v>0.7768728911500205</v>
       </c>
       <c r="D17">
-        <v>0.105132675336975</v>
+        <v>0.3035316656344946</v>
       </c>
       <c r="E17">
-        <v>0.1315092469543799</v>
+        <v>0.3071313350718938</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002397825735705983</v>
+        <v>0.000758664880127285</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4621155859539954</v>
+        <v>1.396850714594265</v>
       </c>
       <c r="N17">
-        <v>1.029479673963781</v>
+        <v>0.4134518451707763</v>
       </c>
       <c r="O17">
-        <v>2.715129454414637</v>
+        <v>3.355135312523032</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.080161631652913</v>
+        <v>3.332675004651605</v>
       </c>
       <c r="C18">
-        <v>0.2298938695033996</v>
+        <v>0.7579079995144866</v>
       </c>
       <c r="D18">
-        <v>0.1030379175502389</v>
+        <v>0.2954978138308633</v>
       </c>
       <c r="E18">
-        <v>0.1296903112169829</v>
+        <v>0.2988267131274966</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002398631752038974</v>
+        <v>0.0007600221084035644</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4523218424132693</v>
+        <v>1.359846152188837</v>
       </c>
       <c r="N18">
-        <v>1.033114103795361</v>
+        <v>0.4225979604227206</v>
       </c>
       <c r="O18">
-        <v>2.702632942032238</v>
+        <v>3.280657939630885</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.071786963362683</v>
+        <v>3.302963566476933</v>
       </c>
       <c r="C19">
-        <v>0.2280014893366911</v>
+        <v>0.751495296257815</v>
       </c>
       <c r="D19">
-        <v>0.1023293513930241</v>
+        <v>0.2927852806896141</v>
       </c>
       <c r="E19">
-        <v>0.129076148740161</v>
+        <v>0.2960301889964896</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002398906556375837</v>
+        <v>0.0007604829206336793</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4490079386599888</v>
+        <v>1.347349826299634</v>
       </c>
       <c r="N19">
-        <v>1.034353265839822</v>
+        <v>0.4257213311966961</v>
       </c>
       <c r="O19">
-        <v>2.698437006214249</v>
+        <v>3.25561728941733</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.109480348476779</v>
+        <v>3.436861576735112</v>
       </c>
       <c r="C20">
-        <v>0.2365140797604681</v>
+        <v>0.7803870173005123</v>
       </c>
       <c r="D20">
-        <v>0.105520692758418</v>
+        <v>0.3050222330999333</v>
       </c>
       <c r="E20">
-        <v>0.1318466996754353</v>
+        <v>0.3086757416128947</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002397677462679362</v>
+        <v>0.0007584142867793872</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4639291822577718</v>
+        <v>1.403715360643119</v>
       </c>
       <c r="N20">
-        <v>1.028811112360403</v>
+        <v>0.4117718925337126</v>
       </c>
       <c r="O20">
-        <v>2.717458998410109</v>
+        <v>3.369004490018654</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.236235865281117</v>
+        <v>3.890474177134877</v>
       </c>
       <c r="C21">
-        <v>0.2650565267560978</v>
+        <v>0.8781251339792391</v>
       </c>
       <c r="D21">
-        <v>0.1162909374455126</v>
+        <v>0.3467122797975577</v>
       </c>
       <c r="E21">
-        <v>0.1412747351137114</v>
+        <v>0.3523200671425144</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002393679742565769</v>
+        <v>0.0007515479401218883</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5142089651200195</v>
+        <v>1.595601860360233</v>
       </c>
       <c r="N21">
-        <v>1.010789958291811</v>
+        <v>0.3668374156063496</v>
       </c>
       <c r="O21">
-        <v>2.783826015427735</v>
+        <v>3.763117943975089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.319158307144505</v>
+        <v>4.190171219128047</v>
       </c>
       <c r="C22">
-        <v>0.2836664444140808</v>
+        <v>0.9425938877087106</v>
       </c>
       <c r="D22">
-        <v>0.1233658443538985</v>
+        <v>0.374447252656708</v>
       </c>
       <c r="E22">
-        <v>0.1475269399043242</v>
+        <v>0.3818247524552092</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002391164846005157</v>
+        <v>0.0007471168448808676</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5471801535919809</v>
+        <v>1.723160871640104</v>
       </c>
       <c r="N22">
-        <v>0.9994602788932507</v>
+        <v>0.3390105741043197</v>
       </c>
       <c r="O22">
-        <v>2.829041883420473</v>
+        <v>4.031613171806498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.274893829047926</v>
+        <v>4.029890718054276</v>
       </c>
       <c r="C23">
-        <v>0.2737380577900979</v>
+        <v>0.9081251688367047</v>
       </c>
       <c r="D23">
-        <v>0.1195865251153378</v>
+        <v>0.3595959268407398</v>
       </c>
       <c r="E23">
-        <v>0.1441816503323281</v>
+        <v>0.3659797948181307</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00239249816886279</v>
+        <v>0.0007494770508378908</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5295726204190885</v>
+        <v>1.65486437876217</v>
       </c>
       <c r="N23">
-        <v>1.005466054637171</v>
+        <v>0.3537146423751309</v>
       </c>
       <c r="O23">
-        <v>2.804740153528314</v>
+        <v>3.887237453919113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.107409984778599</v>
+        <v>3.429495585501058</v>
       </c>
       <c r="C24">
-        <v>0.2360468285350521</v>
+        <v>0.7787981458000104</v>
       </c>
       <c r="D24">
-        <v>0.1053452606290648</v>
+        <v>0.3043482162249944</v>
       </c>
       <c r="E24">
-        <v>0.1316941089510877</v>
+        <v>0.307977240210775</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002397744461320226</v>
+        <v>0.0007585275554926607</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4631092311817753</v>
+        <v>1.400611288174616</v>
       </c>
       <c r="N24">
-        <v>1.029113207797437</v>
+        <v>0.4125308946377011</v>
       </c>
       <c r="O24">
-        <v>2.716405190614864</v>
+        <v>3.362731052372851</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9271108228649041</v>
+        <v>2.792931102625403</v>
       </c>
       <c r="C25">
-        <v>0.1952038511880403</v>
+        <v>0.6412435642624246</v>
       </c>
       <c r="D25">
-        <v>0.09013586295044718</v>
+        <v>0.2464796786549073</v>
       </c>
       <c r="E25">
-        <v>0.1186029645540359</v>
+        <v>0.2488848476079752</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002403826375889016</v>
+        <v>0.0007685708449416726</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3918832632879088</v>
+        <v>1.133825884091124</v>
       </c>
       <c r="N25">
-        <v>1.056537043870337</v>
+        <v>0.4819666540543626</v>
       </c>
       <c r="O25">
-        <v>2.628955518964943</v>
+        <v>2.836841069424509</v>
       </c>
     </row>
   </sheetData>
